--- a/medicine/Enfance/Le_Royaume_de_Kensuké/Le_Royaume_de_Kensuké.xlsx
+++ b/medicine/Enfance/Le_Royaume_de_Kensuké/Le_Royaume_de_Kensuké.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Kensuk%C3%A9</t>
+          <t>Le_Royaume_de_Kensuké</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Royaume de Kensuké est un roman de Michael Morpurgo destiné à un public pré-adolescent ou adolescent. C'est un livre d'aventures s'inspirant de Robinson Crusoé. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Kensuk%C3%A9</t>
+          <t>Le_Royaume_de_Kensuké</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Michael
 Kensuké Ogawa
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Kensuk%C3%A9</t>
+          <t>Le_Royaume_de_Kensuké</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est composé de dix chapitres et d'un post-scriptum.
 Michael vit avec ses parents en Grande-Bretagne. Un jour, son père et sa mère reçoivent une lettre pour leur annoncer qu'ils sont licenciés de l'usine de briqueterie et perdent tout espoir de retrouver un travail en rapport avec leurs compétences. Avec l'indemnité de licenciement et le fruit de la vente du véhicule familial, le père de Michael, approuvé par la mère, décide d'acheter un bateau nommé  Peggy Sue  et de faire le tour du monde. 
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Kensuk%C3%A9</t>
+          <t>Le_Royaume_de_Kensuké</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,9 +605,11 @@
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une adaptation animée pour le cinéma est sortie le 7 février 2024. Le film, réalisé par Neil Boyle et Kirk Hendry, est distribué en France par Le Pacte[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation animée pour le cinéma est sortie le 7 février 2024. Le film, réalisé par Neil Boyle et Kirk Hendry, est distribué en France par Le Pacte.
 </t>
         </is>
       </c>
